--- a/doc/imdb_files_index.xlsx
+++ b/doc/imdb_files_index.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="280" windowWidth="30280" windowHeight="18660" tabRatio="500"/>
+    <workbookView xWindow="1460" yWindow="720" windowWidth="47740" windowHeight="20380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HTML TABLE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$50</definedName>
@@ -399,8 +400,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -444,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -464,6 +483,15 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -483,6 +511,15 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -812,25 +849,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -849,8 +886,12 @@
       <c r="F1" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="str">
+        <f>"&lt;table&gt;&lt;tr&gt;&lt;th&gt;"&amp;A1&amp;"&lt;/th&gt;&lt;th&gt;"&amp;B1&amp;"&lt;/th&gt;&lt;th&gt;"&amp;C1&amp;"&lt;/th&gt;&lt;th&gt;"&amp;D1&amp;"&lt;/th&gt;&lt;th&gt;"&amp;E1&amp;"&lt;/th&gt;&lt;th&gt;"&amp;F1&amp;"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;"</f>
+        <v>&lt;table&gt;&lt;tr&gt;&lt;th&gt;Status&lt;/th&gt;&lt;th&gt;Type&lt;/th&gt;&lt;th&gt;File Name&lt;/th&gt;&lt;th&gt;Description&lt;/th&gt;&lt;th&gt;Hash to store the header line for each file&lt;/th&gt;&lt;th&gt;Header Line Value&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -871,8 +912,12 @@
         <f>RIGHT(E2,LEN(E2)-FIND(" = ",E2)-2)</f>
         <v>"THE ACTORS LIST"</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="str">
+        <f>"&lt;tr&gt;&lt;th&gt;"&amp;A2&amp;"&lt;/th&gt;&lt;th&gt;"&amp;B2&amp;"&lt;/th&gt;&lt;th&gt;"&amp;C2&amp;"&lt;/th&gt;&lt;th&gt;"&amp;D2&amp;"&lt;/th&gt;&lt;th&gt;"&amp;E2&amp;"&lt;/th&gt;&lt;th&gt;"&amp;F2&amp;"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;Multi-line&lt;/th&gt;&lt;th&gt;actors.list&lt;/th&gt;&lt;th&gt;ACTORS.LIST - "THE ACTORS LIST"&lt;/th&gt;&lt;th&gt;$start['actors.list'] = "THE ACTORS LIST"&lt;/th&gt;&lt;th&gt;"THE ACTORS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -893,8 +938,12 @@
         <f t="shared" ref="F3:F50" si="1">RIGHT(E3,LEN(E3)-FIND(" = ",E3)-2)</f>
         <v>"THE ACTRESSES LIST"</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G50" si="2">"&lt;tr&gt;&lt;th&gt;"&amp;A3&amp;"&lt;/th&gt;&lt;th&gt;"&amp;B3&amp;"&lt;/th&gt;&lt;th&gt;"&amp;C3&amp;"&lt;/th&gt;&lt;th&gt;"&amp;D3&amp;"&lt;/th&gt;&lt;th&gt;"&amp;E3&amp;"&lt;/th&gt;&lt;th&gt;"&amp;F3&amp;"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;Multi-line&lt;/th&gt;&lt;th&gt;actresses.list&lt;/th&gt;&lt;th&gt;ACTRESSES.LIST - "THE ACTRESSES LIST"&lt;/th&gt;&lt;th&gt;$start['actresses.list'] = "THE ACTRESSES LIST"&lt;/th&gt;&lt;th&gt;"THE ACTRESSES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="C4" t="s">
         <v>49</v>
       </c>
@@ -909,8 +958,12 @@
         <f t="shared" si="1"/>
         <v>"AKA NAMES LIST"</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;aka-names.list&lt;/th&gt;&lt;th&gt;AKA-NAMES.LIST - "AKA NAMES LIST"&lt;/th&gt;&lt;th&gt;$start['aka-names.list'] = "AKA NAMES LIST"&lt;/th&gt;&lt;th&gt;"AKA NAMES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>50</v>
       </c>
@@ -925,8 +978,12 @@
         <f t="shared" si="1"/>
         <v>"AKA TITLES LIST"</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;aka-titles.list&lt;/th&gt;&lt;th&gt;AKA-TITLES.LIST - "AKA TITLES LIST"&lt;/th&gt;&lt;th&gt;$start['aka-titles.list'] = "AKA TITLES LIST"&lt;/th&gt;&lt;th&gt;"AKA TITLES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="C6" t="s">
         <v>51</v>
       </c>
@@ -941,8 +998,12 @@
         <f t="shared" si="1"/>
         <v>"ALTERNATE VERSIONS LIST"</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;alternate-versions.list&lt;/th&gt;&lt;th&gt;ALTERNATE-VERSIONS.LIST - "ALTERNATE VERSIONS LIST"&lt;/th&gt;&lt;th&gt;$start['alternate-versions.list'] = "ALTERNATE VERSIONS LIST"&lt;/th&gt;&lt;th&gt;"ALTERNATE VERSIONS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="C7" t="s">
         <v>52</v>
       </c>
@@ -957,8 +1018,12 @@
         <f t="shared" si="1"/>
         <v>"BIOGRAPHY LIST"</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;biographies.list&lt;/th&gt;&lt;th&gt;BIOGRAPHIES.LIST - "BIOGRAPHY LIST"&lt;/th&gt;&lt;th&gt;$start['biographies.list'] = "BIOGRAPHY LIST"&lt;/th&gt;&lt;th&gt;"BIOGRAPHY LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -973,8 +1038,12 @@
         <f t="shared" si="1"/>
         <v>"BUSINESS LIST"</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;business.list&lt;/th&gt;&lt;th&gt;BUSINESS.LIST - "BUSINESS LIST"&lt;/th&gt;&lt;th&gt;$start['business.list'] = "BUSINESS LIST"&lt;/th&gt;&lt;th&gt;"BUSINESS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -989,8 +1058,12 @@
         <f t="shared" si="1"/>
         <v>"CERTIFICATES LIST"</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;certificates.list&lt;/th&gt;&lt;th&gt;CERTIFICATES.LIST - "CERTIFICATES LIST"&lt;/th&gt;&lt;th&gt;$start['certificates.list'] = "CERTIFICATES LIST"&lt;/th&gt;&lt;th&gt;"CERTIFICATES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="C10" t="s">
         <v>55</v>
       </c>
@@ -1005,8 +1078,12 @@
         <f t="shared" si="1"/>
         <v>"THE CINEMATOGRAPHERS LIST"</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;cinematographers.list&lt;/th&gt;&lt;th&gt;CINEMATOGRAPHERS.LIST - "THE CINEMATOGRAPHERS LIST"&lt;/th&gt;&lt;th&gt;$start['cinematographers.list'] = "THE CINEMATOGRAPHERS LIST"&lt;/th&gt;&lt;th&gt;"THE CINEMATOGRAPHERS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>56</v>
       </c>
@@ -1021,8 +1098,12 @@
         <f t="shared" si="1"/>
         <v>"COLOR INFO LIST"</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;color-info.list&lt;/th&gt;&lt;th&gt;COLOR-INFO.LIST - "COLOR INFO LIST"&lt;/th&gt;&lt;th&gt;$start['color-info.list'] = "COLOR INFO LIST"&lt;/th&gt;&lt;th&gt;"COLOR INFO LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="C12" t="s">
         <v>57</v>
       </c>
@@ -1037,8 +1118,12 @@
         <f t="shared" si="1"/>
         <v>"CAST COVERAGE TRACKING LIST"</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;complete-cast.list&lt;/th&gt;&lt;th&gt;COMPLETE-CAST.LIST - "CAST COVERAGE TRACKING LIST"&lt;/th&gt;&lt;th&gt;$start['complete-cast.list'] = "CAST COVERAGE TRACKING LIST"&lt;/th&gt;&lt;th&gt;"CAST COVERAGE TRACKING LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="C13" t="s">
         <v>58</v>
       </c>
@@ -1053,8 +1138,12 @@
         <f t="shared" si="1"/>
         <v>"CREW COVERAGE TRACKING LIST"</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;complete-crew.list&lt;/th&gt;&lt;th&gt;COMPLETE-CREW.LIST - "CREW COVERAGE TRACKING LIST"&lt;/th&gt;&lt;th&gt;$start['complete-crew.list'] = "CREW COVERAGE TRACKING LIST"&lt;/th&gt;&lt;th&gt;"CREW COVERAGE TRACKING LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="C14" t="s">
         <v>59</v>
       </c>
@@ -1069,8 +1158,12 @@
         <f t="shared" si="1"/>
         <v>"THE COMPOSERS LIST"</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;composers.list&lt;/th&gt;&lt;th&gt;COMPOSERS.LIST - "THE COMPOSERS LIST"&lt;/th&gt;&lt;th&gt;$start['composers.list'] = "THE COMPOSERS LIST"&lt;/th&gt;&lt;th&gt;"THE COMPOSERS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="C15" t="s">
         <v>60</v>
       </c>
@@ -1085,8 +1178,12 @@
         <f t="shared" si="1"/>
         <v>"THE COSTUME DESIGNERS LIST"</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;costume-designers.list&lt;/th&gt;&lt;th&gt;COSTUME-DESIGNERS.LIST - "THE COSTUME DESIGNERS LIST"&lt;/th&gt;&lt;th&gt;$start['costume-designers.list'] = "THE COSTUME DESIGNERS LIST"&lt;/th&gt;&lt;th&gt;"THE COSTUME DESIGNERS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -1107,8 +1204,12 @@
         <f t="shared" si="1"/>
         <v>"COUNTRIES LIST"</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;1 row/record&lt;/th&gt;&lt;th&gt;countries.list&lt;/th&gt;&lt;th&gt;COUNTRIES.LIST - "COUNTRIES LIST"&lt;/th&gt;&lt;th&gt;$start['countries.list'] = "COUNTRIES LIST"&lt;/th&gt;&lt;th&gt;"COUNTRIES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="C17" t="s">
         <v>62</v>
       </c>
@@ -1123,8 +1224,12 @@
         <f t="shared" si="1"/>
         <v>"CRAZY CREDITS"</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;crazy-credits.list&lt;/th&gt;&lt;th&gt;CRAZY-CREDITS.LIST - "CRAZY CREDITS"&lt;/th&gt;&lt;th&gt;$start['crazy-credits.list'] = "CRAZY CREDITS"&lt;/th&gt;&lt;th&gt;"CRAZY CREDITS"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -1145,8 +1250,12 @@
         <f t="shared" si="1"/>
         <v>"THE DIRECTORS LIST"</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;Multi-line&lt;/th&gt;&lt;th&gt;directors.list&lt;/th&gt;&lt;th&gt;DIRECTORS.LIST - "THE DIRECTORS LIST"&lt;/th&gt;&lt;th&gt;$start['directors.list'] = "THE DIRECTORS LIST"&lt;/th&gt;&lt;th&gt;"THE DIRECTORS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="C19" t="s">
         <v>64</v>
       </c>
@@ -1161,8 +1270,12 @@
         <f t="shared" si="1"/>
         <v>"DISTRIBUTORS LIST"</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;distributors.list&lt;/th&gt;&lt;th&gt;DISTRIBUTORS.LIST - "DISTRIBUTORS LIST"&lt;/th&gt;&lt;th&gt;$start['distributors.list'] = "DISTRIBUTORS LIST"&lt;/th&gt;&lt;th&gt;"DISTRIBUTORS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="C20" t="s">
         <v>65</v>
       </c>
@@ -1177,8 +1290,12 @@
         <f t="shared" si="1"/>
         <v>"THE EDITORS LIST"</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;editors.list&lt;/th&gt;&lt;th&gt;EDITORS.LIST - "THE EDITORS LIST"&lt;/th&gt;&lt;th&gt;$start['editors.list'] = "THE EDITORS LIST"&lt;/th&gt;&lt;th&gt;"THE EDITORS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -1199,8 +1316,12 @@
         <f t="shared" si="1"/>
         <v>"THE GENRES LIST"</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;1 row/record&lt;/th&gt;&lt;th&gt;genres.list&lt;/th&gt;&lt;th&gt;GENRES.LIST - "THE GENRES LIST"&lt;/th&gt;&lt;th&gt;$start['genres.list'] = "THE GENRES LIST"&lt;/th&gt;&lt;th&gt;"THE GENRES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="C22" t="s">
         <v>67</v>
       </c>
@@ -1215,8 +1336,12 @@
         <f t="shared" si="1"/>
         <v>"AKA TITLES LIST GERMAN"</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;german-aka-titles.list&lt;/th&gt;&lt;th&gt;GERMAN-AKA-TITLES.LIST - "AKA TITLES LIST GERMAN"&lt;/th&gt;&lt;th&gt;$start['german-aka-titles.lis'] = "AKA TITLES LIST GERMAN"&lt;/th&gt;&lt;th&gt;"AKA TITLES LIST GERMAN"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="C23" t="s">
         <v>68</v>
       </c>
@@ -1231,8 +1356,12 @@
         <f t="shared" si="1"/>
         <v>"GOOFS LIST"</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;goofs.list&lt;/th&gt;&lt;th&gt;GOOFS.LIST - "GOOFS LIST"&lt;/th&gt;&lt;th&gt;$start['goofs.list'] = "GOOFS LIST"&lt;/th&gt;&lt;th&gt;"GOOFS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="C24" t="s">
         <v>69</v>
       </c>
@@ -1247,8 +1376,12 @@
         <f t="shared" si="1"/>
         <v>"AKA TITLES LIST ISO"</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;iso-aka-titles.list&lt;/th&gt;&lt;th&gt;ISO-AKA-TITLES.LIST - "AKA TITLES LIST ISO"&lt;/th&gt;&lt;th&gt;$start['iso-aka-titles.list'] = "AKA TITLES LIST ISO"&lt;/th&gt;&lt;th&gt;"AKA TITLES LIST ISO"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="C25" t="s">
         <v>70</v>
       </c>
@@ -1263,8 +1396,12 @@
         <f t="shared" si="1"/>
         <v>"AKA TITLES LIST ITALIAN"</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;italian-aka-titles.list&lt;/th&gt;&lt;th&gt;ITALIAN-AKA-TITLES.LIST - "AKA TITLES LIST ITALIAN"&lt;/th&gt;&lt;th&gt;$start['italian-aka-titles.list'] = "AKA TITLES LIST ITALIAN"&lt;/th&gt;&lt;th&gt;"AKA TITLES LIST ITALIAN"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="C26" t="s">
         <v>71</v>
       </c>
@@ -1279,8 +1416,12 @@
         <f t="shared" si="1"/>
         <v>"THE KEYWORDS LIST"</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;keywords.list&lt;/th&gt;&lt;th&gt;KEYWORDS.LIST - "THE KEYWORDS LIST"&lt;/th&gt;&lt;th&gt;$start['keywords.list:'] = "THE KEYWORDS LIST"&lt;/th&gt;&lt;th&gt;"THE KEYWORDS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -1301,8 +1442,12 @@
         <f t="shared" si="1"/>
         <v>"LANGUAGE LIST"</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;1 row/record&lt;/th&gt;&lt;th&gt;language.list&lt;/th&gt;&lt;th&gt;LANGUAGE.LIST - "LANGUAGE LIST"&lt;/th&gt;&lt;th&gt;$start['language.list'] = "LANGUAGE LIST"&lt;/th&gt;&lt;th&gt;"LANGUAGE LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="C28" t="s">
         <v>73</v>
       </c>
@@ -1317,8 +1462,12 @@
         <f t="shared" si="1"/>
         <v>"LASERDISC LIST"</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;laserdisc.list&lt;/th&gt;&lt;th&gt;LASERDISC.LIST - "LASERDISC LIST"&lt;/th&gt;&lt;th&gt;$start['laserdisc.list'] = "LASERDISC LIST"&lt;/th&gt;&lt;th&gt;"LASERDISC LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="C29" t="s">
         <v>74</v>
       </c>
@@ -1333,8 +1482,12 @@
         <f t="shared" si="1"/>
         <v>"LITERATURE LIST"</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;literature.list&lt;/th&gt;&lt;th&gt;LITERATURE.LIST - "LITERATURE LIST"&lt;/th&gt;&lt;th&gt;$start['literature.list'] = "LITERATURE LIST"&lt;/th&gt;&lt;th&gt;"LITERATURE LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -1355,8 +1508,12 @@
         <f t="shared" si="1"/>
         <v>"LOCATIONS LIST"</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;1 row/record&lt;/th&gt;&lt;th&gt;locations.list&lt;/th&gt;&lt;th&gt;LOCATIONS.LIST - "LOCATIONS LIST"&lt;/th&gt;&lt;th&gt;$start['locations.list'] = "LOCATIONS LIST"&lt;/th&gt;&lt;th&gt;"LOCATIONS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="C31" t="s">
         <v>76</v>
       </c>
@@ -1371,8 +1528,12 @@
         <f t="shared" si="1"/>
         <v>"MISCELLANEOUS COMPANY LIST"</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;miscellaneous-companies.list&lt;/th&gt;&lt;th&gt;MISCELLANEOUS-COMPANIES.LIST - "MISCELLANEOUS COMPANY LIST"&lt;/th&gt;&lt;th&gt;$start['miscellaneous-companies.list'] = "MISCELLANEOUS COMPANY LIST"&lt;/th&gt;&lt;th&gt;"MISCELLANEOUS COMPANY LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="C32" t="s">
         <v>77</v>
       </c>
@@ -1387,8 +1548,12 @@
         <f t="shared" si="1"/>
         <v>"THE MISCELLANEOUS FILMOGRAPHY LIST"</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;miscellaneous.list&lt;/th&gt;&lt;th&gt;MISCELLANEOUS.LIST - "THE MISCELLANEOUS FILMOGRAPHY LIST"&lt;/th&gt;&lt;th&gt;$start['miscellaneous.list'] = "THE MISCELLANEOUS FILMOGRAPHY LIST"&lt;/th&gt;&lt;th&gt;"THE MISCELLANEOUS FILMOGRAPHY LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="C33" t="s">
         <v>78</v>
       </c>
@@ -1403,8 +1568,12 @@
         <f t="shared" si="1"/>
         <v>"MOVIE LINKS LIST"</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;movie-links.list&lt;/th&gt;&lt;th&gt;MOVIE-LINKS.LIST - "MOVIE LINKS LIST"&lt;/th&gt;&lt;th&gt;$start['movie-links.list'] = "MOVIE LINKS LIST"&lt;/th&gt;&lt;th&gt;"MOVIE LINKS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -1425,8 +1594,12 @@
         <f t="shared" si="1"/>
         <v>"MOVIES LIST"</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;1 row/record&lt;/th&gt;&lt;th&gt;movies.list&lt;/th&gt;&lt;th&gt;MOVIES.LIST - "MOVIES LIST"&lt;/th&gt;&lt;th&gt;$start['movies.list'] = "MOVIES LIST"&lt;/th&gt;&lt;th&gt;"MOVIES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -1447,8 +1620,12 @@
         <f t="shared" si="1"/>
         <v>"MPAA RATINGS REASONS LIST"</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;Multi-line&lt;/th&gt;&lt;th&gt;mpaa-ratings-reasons.list&lt;/th&gt;&lt;th&gt;MPAA-RATINGS-REASONS.LIST - "MPAA RATINGS REASONS LIST"&lt;/th&gt;&lt;th&gt;$start['mpaa-ratings-reasons.list'] = "MPAA RATINGS REASONS LIST"&lt;/th&gt;&lt;th&gt;"MPAA RATINGS REASONS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1469,8 +1646,12 @@
         <f t="shared" si="1"/>
         <v>"PLOT SUMMARIES LIST"</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;Multi-line&lt;/th&gt;&lt;th&gt;plot.list&lt;/th&gt;&lt;th&gt;PLOT.LIST - "PLOT SUMMARIES LIST"&lt;/th&gt;&lt;th&gt;$start['plot.list'] = "PLOT SUMMARIES LIST"&lt;/th&gt;&lt;th&gt;"PLOT SUMMARIES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="C37" t="s">
         <v>82</v>
       </c>
@@ -1485,8 +1666,12 @@
         <f t="shared" si="1"/>
         <v>"THE PRODUCERS LIST"</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;producers.list&lt;/th&gt;&lt;th&gt;PRODUCERS.LIST - "THE PRODUCERS LIST"&lt;/th&gt;&lt;th&gt;$start['producers.list'] = "THE PRODUCERS LIST"&lt;/th&gt;&lt;th&gt;"THE PRODUCERS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="C38" t="s">
         <v>83</v>
       </c>
@@ -1501,8 +1686,12 @@
         <f t="shared" si="1"/>
         <v>"PRODUCTION COMPANIES LIST"</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;production-companies.list&lt;/th&gt;&lt;th&gt;PRODUCTION-COMPANIES.LIST - "PRODUCTION COMPANIES LIST"&lt;/th&gt;&lt;th&gt;$start['production-companies.list'] = "PRODUCTION COMPANIES LIST"&lt;/th&gt;&lt;th&gt;"PRODUCTION COMPANIES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="C39" t="s">
         <v>84</v>
       </c>
@@ -1517,8 +1706,12 @@
         <f t="shared" si="1"/>
         <v>"THE PRODUCTION DESIGNERS LIST"</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;production-designers.list&lt;/th&gt;&lt;th&gt;PRODUCTION-DESIGNERS.LIST - "THE PRODUCTION DESIGNERS LIST"&lt;/th&gt;&lt;th&gt;$start['production-designers.list'] = "THE PRODUCTION DESIGNERS LIST"&lt;/th&gt;&lt;th&gt;"THE PRODUCTION DESIGNERS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="C40" t="s">
         <v>85</v>
       </c>
@@ -1533,8 +1726,12 @@
         <f t="shared" si="1"/>
         <v>"QUOTES LIST"</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;quotes.list&lt;/th&gt;&lt;th&gt;QUOTES.LIST - "QUOTES LIST"&lt;/th&gt;&lt;th&gt;$start['quotes.list'] = "QUOTES LIST"&lt;/th&gt;&lt;th&gt;"QUOTES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="C41" t="s">
         <v>86</v>
       </c>
@@ -1549,8 +1746,12 @@
         <f t="shared" si="1"/>
         <v>"MOVIE RATINGS REPORT"</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;ratings.list&lt;/th&gt;&lt;th&gt;RATINGS.LIST - "MOVIE RATINGS REPORT"&lt;/th&gt;&lt;th&gt;$start['ratings.list'] = "MOVIE RATINGS REPORT"&lt;/th&gt;&lt;th&gt;"MOVIE RATINGS REPORT"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -1571,8 +1772,12 @@
         <f t="shared" si="1"/>
         <v>"RELEASE DATES LIST"</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;1 row/record&lt;/th&gt;&lt;th&gt;release-dates.list&lt;/th&gt;&lt;th&gt;RELEASE-DATES.LIST - "RELEASE DATES LIST"&lt;/th&gt;&lt;th&gt;$start['release-dates.list'] = "RELEASE DATES LIST"&lt;/th&gt;&lt;th&gt;"RELEASE DATES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -1593,8 +1798,12 @@
         <f t="shared" si="1"/>
         <v>"RUNNING TIMES LIST"</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;Done&lt;/th&gt;&lt;th&gt;1 row/record&lt;/th&gt;&lt;th&gt;running-times.list&lt;/th&gt;&lt;th&gt;RUNNING-TIMES.LIST - "RUNNING TIMES LIST"&lt;/th&gt;&lt;th&gt;$start['running-times.list'] = "RUNNING TIMES LIST"&lt;/th&gt;&lt;th&gt;"RUNNING TIMES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="C44" t="s">
         <v>89</v>
       </c>
@@ -1609,8 +1818,12 @@
         <f t="shared" si="1"/>
         <v>"SOUND-MIX LIST"</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;sound-mix.list&lt;/th&gt;&lt;th&gt;SOUND-MIX.LIST - "SOUND-MIX LIST"&lt;/th&gt;&lt;th&gt;$start['sound-mix.list'] = "SOUND-MIX LIST"&lt;/th&gt;&lt;th&gt;"SOUND-MIX LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="C45" t="s">
         <v>90</v>
       </c>
@@ -1625,8 +1838,12 @@
         <f t="shared" si="1"/>
         <v>"SOUNDTRACKS LIST"</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;soundtracks.list&lt;/th&gt;&lt;th&gt;SOUNDTRACKS.LIST - "SOUNDTRACKS LIST"&lt;/th&gt;&lt;th&gt;$start['soundtracks.list'] = "SOUNDTRACKS LIST"&lt;/th&gt;&lt;th&gt;"SOUNDTRACKS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="C46" t="s">
         <v>91</v>
       </c>
@@ -1641,8 +1858,12 @@
         <f t="shared" si="1"/>
         <v>"SFXCO COMPANIES LIST"</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;special-effects-companies.list&lt;/th&gt;&lt;th&gt;SPECIAL-EFFECTS-COMPANIES.LIST - "SFXCO COMPANIES LIST"&lt;/th&gt;&lt;th&gt;$start['special-effects-companies.list'] = "SFXCO COMPANIES LIST"&lt;/th&gt;&lt;th&gt;"SFXCO COMPANIES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="C47" t="s">
         <v>92</v>
       </c>
@@ -1657,8 +1878,12 @@
         <f t="shared" si="1"/>
         <v>"TAG LINES LIST"</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;taglines.list&lt;/th&gt;&lt;th&gt;TAGLINES.LIST - "TAG LINES LIST"&lt;/th&gt;&lt;th&gt;$start['taglines.list'] = "TAG LINES LIST"&lt;/th&gt;&lt;th&gt;"TAG LINES LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="C48" t="s">
         <v>93</v>
       </c>
@@ -1673,8 +1898,12 @@
         <f t="shared" si="1"/>
         <v>"TECHNICAL LIST"</v>
       </c>
-    </row>
-    <row r="49" spans="3:6">
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;technical.list&lt;/th&gt;&lt;th&gt;TECHNICAL.LIST - "TECHNICAL LIST"&lt;/th&gt;&lt;th&gt;$start['technical.list'] = "TECHNICAL LIST"&lt;/th&gt;&lt;th&gt;"TECHNICAL LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
       <c r="C49" t="s">
         <v>94</v>
       </c>
@@ -1689,8 +1918,12 @@
         <f t="shared" si="1"/>
         <v>"FILM TRIVIA"</v>
       </c>
-    </row>
-    <row r="50" spans="3:6">
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;trivia.list&lt;/th&gt;&lt;th&gt;TRIVIA.LIST - "FILM TRIVIA"&lt;/th&gt;&lt;th&gt;$start['trivia.list'] = "FILM TRIVIA"&lt;/th&gt;&lt;th&gt;"FILM TRIVIA"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
       <c r="C50" t="s">
         <v>95</v>
       </c>
@@ -1704,6 +1937,16 @@
       <c r="F50" t="str">
         <f t="shared" si="1"/>
         <v>"THE WRITERS LIST"</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;writers.list&lt;/th&gt;&lt;th&gt;WRITERS.LIST - "THE WRITERS LIST"&lt;/th&gt;&lt;th&gt;$start['writers.list'] = "THE WRITERS LIST"&lt;/th&gt;&lt;th&gt;"THE WRITERS LIST"&lt;/th&gt;&lt;th&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="G51" t="str">
+        <f>"&lt;/table&gt;"</f>
+        <v>&lt;/table&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -1716,4 +1959,22 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>